--- a/medicine/Médecine vétérinaire/Claude_Bourgelat/Claude_Bourgelat.xlsx
+++ b/medicine/Médecine vétérinaire/Claude_Bourgelat/Claude_Bourgelat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Bourgelat, né le 27 mars 1712 à Lyon et mort le 3 janvier 1779 à Paris, est un écuyer et vétérinaire français.
 Bourgelat est le précurseur de l’institutionnalisation de l'enseignement vétérinaire, à travers la fondation des deux premières écoles vétérinaires du monde, qu'il a impulsées à Lyon en 1761, puis à Maisons-Alfort en 1765. On peut également le regarder comme le fondateur de l’hippiatrique en France.
@@ -512,12 +524,49 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le père de Claude Bourgelat est un riche commerçant qui partage ses activités entre Lyon, où son élection à l'échevinage le fait accéder à la noblesse, et Livourne en Italie. Après son décès en 1719, Claude voit l’aisance matérielle s’amenuiser et l’ambiance familiale se dégrader au fil des procès autour de l’héritage.
 Bourgelat démarre donc sa vie d'adulte avec très peu de moyens. Entre 1724 et 1729, il sert dans la troupe des mousquetaires. Puis, on le retrouve à Lyon où il tient un cabinet d'avocat de 1733 à 1740. Il plaide des affaires pour la haute bourgeoisie et la noblesse lyonnaise. Les relations qu'il se crée alors dans cette sphère du pouvoir local lui serviront pour la réalisation de ses ambitions professionnelles.
-Le fondateur des sciences vétérinaires
-Le 29 juillet 1740, Bourgelat obtient le brevet « d’écuyer du roi tenant l’Académie d’équitation de Lyon ». Il occupe cette fonction de 1740 à 1765. Dès 1744, il publie son premier ouvrage Le Nouveau Newcastle. Ce traité d'équitation qui présente une nouvelle approche de l’art équestre lui vaut une notoriété considérable dans l'Europe entière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Claude_Bourgelat</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Bourgelat</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le fondateur des sciences vétérinaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le 29 juillet 1740, Bourgelat obtient le brevet « d’écuyer du roi tenant l’Académie d’équitation de Lyon ». Il occupe cette fonction de 1740 à 1765. Dès 1744, il publie son premier ouvrage Le Nouveau Newcastle. Ce traité d'équitation qui présente une nouvelle approche de l’art équestre lui vaut une notoriété considérable dans l'Europe entière.
 À l'occasion de la rédaction de ce livre, Bourgelat remarque des anomalies dans les descriptions antérieures de la biomécanique du cheval. Il les attribue à des erreurs dans les connaissances anatomiques de l'époque. Il décide alors de se consacrer à des recherches dans ce domaine et réclame, pour ce faire, la collaboration des chirurgiens humains exerçant à l'hôtel-Dieu. Claude Pouteau et Jean-Baptiste Charmetton, professeurs au collège de chirurgie de Lyon répondent avec intérêt et enthousiasme à sa demande. À la faveur de cette collaboration avec les médecins de l'homme, l'Écuyer a trois révélations :
  la différence entre la démarche empirique et le raisonnement scientifique,
  la similitude entre la « machine humaine et la machine animale »,
@@ -532,40 +581,111 @@
 la démarche scientifique,
 la préoccupation économique,
 la dimension comparative,
-l'approche éthique.
-L'écuyer
-Claude Bourgelat dirigea vingt-cinq ans l'académie d'équitation de Lyon. Il publia en 1744 Le Nouveau Newcastle, œuvre très personnelle malgré son titre, qui est remplie de bons principes[1]
-Sépulture
-Le 3 janvier 1779, Claude Bourgelat meurt à Paris, rue Saint-Louis, au 80 de l'actuelle rue de Turenne dans la paroisse Saint-Gervais. Malgré tout, l'emplacement des restes de Bourgelat reste un mystère notoire deux cents ans après sa mort. Ses funérailles furent probablement célébrées en l’église Saint-Gervais, On peut dans ce cas supposer qu'il fut enterré à St Gervais ou au cimetière St Marcel[2],[3].
+l'approche éthique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claude_Bourgelat</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Bourgelat</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L'écuyer</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Bourgelat dirigea vingt-cinq ans l'académie d'équitation de Lyon. Il publia en 1744 Le Nouveau Newcastle, œuvre très personnelle malgré son titre, qui est remplie de bons principes
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Claude_Bourgelat</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine vétérinaire/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Claude_Bourgelat</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sépulture</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 3 janvier 1779, Claude Bourgelat meurt à Paris, rue Saint-Louis, au 80 de l'actuelle rue de Turenne dans la paroisse Saint-Gervais. Malgré tout, l'emplacement des restes de Bourgelat reste un mystère notoire deux cents ans après sa mort. Ses funérailles furent probablement célébrées en l’église Saint-Gervais, On peut dans ce cas supposer qu'il fut enterré à St Gervais ou au cimetière St Marcel,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Claude_Bourgelat</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Bourgelat</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Le promoteur du concept de biopathologie comparée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'héritage légué par Bourgelat ne s'arrête pas à la médecine animale. Il est le pionnier du concept mondialement connu de nos jours sous la formule « One health ». C'est dans l'Encyclopédie de Diderot qu'il lance les premières bases de la biopathologie comparée. En effet, dès 1755, il écrit : 
 « La médecine de l’homme est utile à celle du cheval et réciproquement. »
@@ -582,31 +702,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Claude_Bourgelat</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine vétérinaire/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Claude_Bourgelat</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, il existe un serment de Bourgelat.
 Plusieurs villes de France, notamment Lyon, Marcy-l'Étoile, Toulouse et Maisons-Alfort, sièges d'écoles vétérinaires, ont une rue Bourgelat.
@@ -614,43 +736,45 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Claude_Bourgelat</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine vétérinaire/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Claude_Bourgelat</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Traité de la cavalerie, Lausanne, 1747, in-12 ; traduit en anglais
 Éléments d’hippiatrique, ou nouveaux principes, etc., Lyon, 1750-1753, 3 volumes in-8°
 Éléments de l’art vétérinaire à l’usage des élèves des écoles royales vétérinaires. Matière médicale raisonnée, ou Précis dans les médicaments considérés dans leurs effets, avec les formules médicinales de la même école, 1761 ; Lyon, J.-M. Bruyset, 1765, in-8°, XIV-239 p. ; 3e éd., Paris, J.-B. Huzard, 1796, 2 vol. in-8°
 Matière médicale raisonnée, etc., Lyon, 1765, in-4°
 Anatomie comparée du cheval, du bœuf et du mouton (suivie de Recherches sur le mécanisme de la rumination), Paris, 1766, in-8° ; traduit en allemand
-Éléments de l’art vétérinaire à l’usage des élèves des écoles royales vétérinaires, Précis anatomique du corps du cheval, comparé avec celui du bœuf et du moutons, Paris, chez Vallat-la-Chapelle, 1766-1769, in-8°, 530 p. ; 2e éd. (augmentée), Paris, chez la Ve Vallat-la-Chapelle, 1791 ; Paris, chez J.-B. Huzard, 1793, in-8° ; 3e éd. (identique à la précédente), Paris, chez Mme Huzard, 1798, 2 vol. in-8°, 378 et 466 p. ; 4e éd. (augmentée et publié avec des Notes par J.-B. Huzard), Paris, Mme Huzard, 1807, 2 vol. in-8°, 425 et 455 p. ; Paris, Mme Huzard, 1832, in-8° ; traduit et publié en allemand, en italien, en espagnol[4]
+Éléments de l’art vétérinaire à l’usage des élèves des écoles royales vétérinaires, Précis anatomique du corps du cheval, comparé avec celui du bœuf et du moutons, Paris, chez Vallat-la-Chapelle, 1766-1769, in-8°, 530 p. ; 2e éd. (augmentée), Paris, chez la Ve Vallat-la-Chapelle, 1791 ; Paris, chez J.-B. Huzard, 1793, in-8° ; 3e éd. (identique à la précédente), Paris, chez Mme Huzard, 1798, 2 vol. in-8°, 378 et 466 p. ; 4e éd. (augmentée et publié avec des Notes par J.-B. Huzard), Paris, Mme Huzard, 1807, 2 vol. in-8°, 425 et 455 p. ; Paris, Mme Huzard, 1832, in-8° ; traduit et publié en allemand, en italien, en espagnol
 Art vétérinaire, ou Médecine des animaux, Paris, Impr. de J.-T. Hérissant, chez Vallat-la-Chapelle, 1767, in-4°, 31 p.
 Traité de la conformation extérieure du cheval, de sa beauté et de ses défauts, Paris, 1769, in-8°
-Essai sur les appareils et sur les bandages propres aux quadrupèdes, avec Philibert Chabert, Paris, Impr. royale, et chez Vallat-la-Chapelle, 1770, in-8°, XIII-106 p. ; nouvelle éd., Paris, Mme Huzard ; 2e éd., Paris, Mme Huzard, 1813, in-8°, XVI-151 p. avec 21 planches ; traduit en allemand[5]
+Essai sur les appareils et sur les bandages propres aux quadrupèdes, avec Philibert Chabert, Paris, Impr. royale, et chez Vallat-la-Chapelle, 1770, in-8°, XIII-106 p. ; nouvelle éd., Paris, Mme Huzard ; 2e éd., Paris, Mme Huzard, 1813, in-8°, XVI-151 p. avec 21 planches ; traduit en allemand
 Traitement pour l’épizootie qui règne sur les bêtes à cornes, Paris, Impr. royale, 1770, in-4°, 19 p.
-Essai théorique et pratique sur la ferrure, à l’usage des Élèves des Écoles vétérinaires, avec Philibert Chabert, 1re éd., Paris, Impr. royale, 1771, in-8°, XVI-206-XX p. Texte en ligne ; 2e éd., Paris, chez Mme Huzard, 1805, in-8°, XVI-230 p. ; 3e éd., Paris, Mme Huzard, 1813, in-8°, XVI-222 p[6].
+Essai théorique et pratique sur la ferrure, à l’usage des Élèves des Écoles vétérinaires, avec Philibert Chabert, 1re éd., Paris, Impr. royale, 1771, in-8°, XVI-206-XX p. Texte en ligne ; 2e éd., Paris, chez Mme Huzard, 1805, in-8°, XVI-230 p. ; 3e éd., Paris, Mme Huzard, 1813, in-8°, XVI-222 p.
 Mémoire sur les maladies contagieuses du bétail, avec un sommaire sur une question très-importante, et suivi de l’avis de plusieurs médecins que l’auteur a cru devoir consulter, Paris, Impr. royale, 1775, in-4°, 32-11 p. ; Paris, Impr. royale, 1783, in-4°, 43 p.
 Règlements pour les Écoles royales vétérinaires de France..., Paris, Impr. royale, 1777, in-8°, XIV-255 p.
 Léon Moulé. Correspondance de Claude Bourgelat. 1912 (circa). (Texte intégral.)</t>
